--- a/2006_population.xlsx
+++ b/2006_population.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_fiona\Info\topic04_team04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{8FBCB716-BB1D-4A2D-8A5F-BE2035D5763A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C47A07C-203F-47E7-8768-95E0192063FB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F9518939-CF3A-486D-A08D-17E79C7D5ADA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -136,17 +135,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Phetchabun</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>Phitsanulok</t>
     </r>
   </si>
@@ -881,12 +869,15 @@
   </si>
   <si>
     <t xml:space="preserve">Reporting areas </t>
+  </si>
+  <si>
+    <t>Phetchabun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -965,7 +956,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1276,99 +1267,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58702B51-206E-4925-A6E9-2FA02DE84234}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5234375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7890625" customWidth="1"/>
+    <col min="2" max="2" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.68359375" customWidth="1"/>
+    <col min="4" max="4" width="19.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>368934</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>283943</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>5695956</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>1536722</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>654206</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>339006</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>1119146</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>502389</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1376,7 +1367,7 @@
         <v>1658298</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1384,63 +1375,63 @@
         <v>1225713</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>1209290</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14">
         <v>478964</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>975562</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>728320</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>834447</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>1750500</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19">
         <v>403363</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1448,7 +1439,7 @@
         <v>773790</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1456,23 +1447,23 @@
         <v>405564</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>613303</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>752775</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1480,71 +1471,71 @@
         <v>255174</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>937686</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>335447</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>250003</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>821905</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>695351</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>2555587</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31">
         <v>1076015</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="29.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32">
         <v>1510460</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1552,79 +1543,79 @@
         <v>477662</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34">
         <v>707171</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35">
         <v>496692</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36">
         <v>899580</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37">
         <v>999057</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="29.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38">
         <v>754595</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39">
         <v>861338</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40">
         <v>635730</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41">
         <v>245394</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42">
         <v>503321</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
@@ -1632,39 +1623,39 @@
         <v>486219</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>9</v>
+    <row r="44" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B44">
         <v>1002317</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45">
         <v>456681</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>557832</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47">
         <v>844508</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -1672,248 +1663,248 @@
         <v>468373</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49">
         <v>300737</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50">
         <v>453819</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51">
         <v>494416</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52">
         <v>179850</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B53">
         <v>828930</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B54">
         <v>573785</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55">
         <v>1310047</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56">
         <v>538344</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57">
         <v>1109046</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58">
         <v>1107626</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59">
         <v>462510</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60">
         <v>194990</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B61">
         <v>609855</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B62">
         <v>281545</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63">
         <v>1446484</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B64">
         <v>216969</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65">
         <v>1317501</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66">
         <v>608820</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B67">
         <v>843904</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68">
         <v>960698</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B69">
         <v>1375257</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70">
         <v>527677</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71">
         <v>607450</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B72">
         <v>219949</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73">
         <v>1783035</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B74">
         <v>1527562</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B75">
         <v>326988</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B76">
         <v>467482</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>468252</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="14.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78">
         <v>540889</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B78">
+  <sortState ref="A2:B78">
     <sortCondition ref="A2:A78"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
